--- a/data/trans_dic/P78_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,42; 72,69</t>
+          <t>36,72; 71,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,11</t>
+          <t>21,91; 28,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 30,5</t>
+          <t>23,7; 30,68</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,83; 83,24</t>
+          <t>70,93; 82,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,93; 71,01</t>
+          <t>42,83; 71,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,05; 73,35</t>
+          <t>49,49; 73,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,13; 89,32</t>
+          <t>65,79; 89,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,21; 88,14</t>
+          <t>75,71; 87,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,11; 86,52</t>
+          <t>75,65; 86,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,26; 81,19</t>
+          <t>70,46; 80,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,72; 58,61</t>
+          <t>43,55; 58,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,97; 62,99</t>
+          <t>49,07; 62,94</t>
         </is>
       </c>
     </row>
